--- a/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ9"/>
+  <dimension ref="A1:AZ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,12 +698,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-NO-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -717,9 +717,15 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>30</v>
+      </c>
       <c r="I2" t="n">
         <v>580</v>
       </c>
@@ -728,7 +734,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -743,49 +749,95 @@
       <c r="O2" t="n">
         <v>12545</v>
       </c>
-      <c r="P2" t="n">
-        <v>273.78</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>272.77</v>
-      </c>
-      <c r="R2" t="n">
-        <v>273.1199999999999</v>
-      </c>
-      <c r="S2" t="n">
-        <v>273.89</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V2" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7769.23076923077</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>12.90639999999999</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.499007080605846</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>12.90620000000002</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>7.111237862845549</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5.879999999999995</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.04222171353702</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.650000000000006</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>5.546960810563482</v>
+      </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.08784143505636442</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
+      <c r="AU2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.9999845038120642</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.4555949853558746</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1.130952380952383</v>
+      </c>
       <c r="AY2" t="inlineStr">
         <is>
           <t>20251110-tett6roof-lowMooring</t>
@@ -800,7 +852,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -819,9 +871,15 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>30</v>
+      </c>
       <c r="I3" t="n">
         <v>580</v>
       </c>
@@ -846,48 +904,102 @@
         <v>12545</v>
       </c>
       <c r="P3" t="n">
-        <v>273.78</v>
+        <v>273.73908</v>
       </c>
       <c r="Q3" t="n">
-        <v>272.77</v>
+        <v>272.8488400000001</v>
       </c>
       <c r="R3" t="n">
-        <v>273.1199999999999</v>
+        <v>273.3348799999999</v>
       </c>
       <c r="S3" t="n">
-        <v>273.89</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+        <v>273.79536</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7769.23076923077</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8.794999999999987</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.053929456880295</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>8.630000000000024</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7.615474252521568</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4.589999999999975</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.037476642033022</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>4.550000000000011</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3.819486579159415</v>
+      </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.05873700892101672</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.200113135758016</v>
+      </c>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.9812393405343987</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.5318655851680142</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.9912854030501168</v>
+      </c>
       <c r="AY3" t="inlineStr">
         <is>
           <t>20251110-tett6roof-lowMooring</t>
@@ -902,7 +1014,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -938,7 +1050,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -982,28 +1094,28 @@
         <v>9569.23076923077</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.90639999999999</v>
+        <v>13.32779999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.499007080605846</v>
+        <v>8.440162726749836</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.90620000000002</v>
+        <v>12.66579999999998</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.111237862845549</v>
+        <v>7.575994668005471</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.879999999999995</v>
+        <v>5.971750000000034</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.04222171353702</v>
+        <v>4.938114691299949</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.650000000000006</v>
+        <v>6.099999999999994</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.546960810563482</v>
+        <v>5.00049402385922</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
@@ -1017,7 +1129,7 @@
         <v>17.83209309073736</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.08784143505636442</v>
+        <v>0.08620523842315302</v>
       </c>
       <c r="AP4" t="n">
         <v>3.94756259260598</v>
@@ -1034,13 +1146,13 @@
         <v>5.8</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.9999845038120642</v>
+        <v>0.9503293866954782</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.4555949853558746</v>
+        <v>0.4714862069510052</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.130952380952383</v>
+        <v>1.021476116716199</v>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
@@ -1056,7 +1168,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1092,7 +1204,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -1108,16 +1220,16 @@
         <v>12545</v>
       </c>
       <c r="P5" t="n">
-        <v>273.73908</v>
+        <v>273.74192</v>
       </c>
       <c r="Q5" t="n">
-        <v>272.8488400000001</v>
+        <v>272.59556</v>
       </c>
       <c r="R5" t="n">
-        <v>273.3348799999999</v>
+        <v>273.18404</v>
       </c>
       <c r="S5" t="n">
-        <v>273.79536</v>
+        <v>273.72112</v>
       </c>
       <c r="T5" t="n">
         <v>4500</v>
@@ -1144,28 +1256,28 @@
         <v>9569.23076923077</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.794999999999987</v>
+        <v>8.774825</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.053929456880295</v>
+        <v>8.082185067084071</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.630000000000024</v>
+        <v>8.629999999999995</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.615474252521568</v>
+        <v>7.617952267169443</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.589999999999975</v>
+        <v>4.811975000000004</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.037476642033022</v>
+        <v>4.109807505879727</v>
       </c>
       <c r="AH5" t="n">
-        <v>4.550000000000011</v>
+        <v>4.510000000000019</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.819486579159415</v>
+        <v>3.870606437099054</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
@@ -1179,7 +1291,7 @@
         <v>17.83209309073736</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.05873700892101672</v>
+        <v>0.05873700892101653</v>
       </c>
       <c r="AP5" t="n">
         <v>3.94756259260598</v>
@@ -1196,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.9812393405343987</v>
+        <v>0.9834953973441061</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.5318655851680142</v>
+        <v>0.5575869061413681</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.9912854030501168</v>
+        <v>0.9372451020630854</v>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
@@ -1218,12 +1330,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1254,7 +1366,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -1298,28 +1410,28 @@
         <v>9569.23076923077</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.32779999999999</v>
+        <v>9.060000000000002</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.440162726749836</v>
+        <v>7.943745753321291</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.66579999999998</v>
+        <v>8.484475000000003</v>
       </c>
       <c r="AE6" t="n">
-        <v>7.575994668005471</v>
+        <v>7.032722619940071</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.971750000000034</v>
+        <v>4.805000000000007</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.938114691299949</v>
+        <v>4.283255868665143</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.099999999999994</v>
+        <v>4.811525000000008</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.00049402385922</v>
+        <v>4.252977475948837</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
@@ -1333,7 +1445,7 @@
         <v>17.83209309073736</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.08620523842315302</v>
+        <v>0.05774654504810454</v>
       </c>
       <c r="AP6" t="n">
         <v>3.94756259260598</v>
@@ -1347,16 +1459,16 @@
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="n">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.9503293866954782</v>
+        <v>0.9364762693156734</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.4714862069510052</v>
+        <v>0.5663284999955808</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.021476116716199</v>
+        <v>1.001357960457857</v>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
@@ -1372,12 +1484,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1408,7 +1520,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -1423,18 +1535,10 @@
       <c r="O7" t="n">
         <v>12545</v>
       </c>
-      <c r="P7" t="n">
-        <v>273.74192</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>272.59556</v>
-      </c>
-      <c r="R7" t="n">
-        <v>273.18404</v>
-      </c>
-      <c r="S7" t="n">
-        <v>273.72112</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
         <v>4500</v>
       </c>
@@ -1460,28 +1564,28 @@
         <v>9569.23076923077</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.774825</v>
+        <v>8.715000000000003</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.082185067084071</v>
+        <v>7.807445486842046</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.629999999999995</v>
+        <v>8.715000000000003</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.617952267169443</v>
+        <v>7.04707798322494</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.811975000000004</v>
+        <v>4.764999999999986</v>
       </c>
       <c r="AG7" t="n">
-        <v>4.109807505879727</v>
+        <v>4.390782187894267</v>
       </c>
       <c r="AH7" t="n">
-        <v>4.510000000000019</v>
+        <v>4.730000000000018</v>
       </c>
       <c r="AI7" t="n">
-        <v>3.870606437099054</v>
+        <v>4.104494641821673</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
@@ -1495,7 +1599,7 @@
         <v>17.83209309073736</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.05873700892101653</v>
+        <v>0.0593155310251054</v>
       </c>
       <c r="AP7" t="n">
         <v>3.94756259260598</v>
@@ -1509,16 +1613,16 @@
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.9834953973441061</v>
+        <v>1</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.5575869061413681</v>
+        <v>0.5467584624211113</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.9372451020630854</v>
+        <v>0.9926547743966488</v>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
@@ -1526,314 +1630,6 @@
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
-        <is>
-          <t>PROCESSED-20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>lowest</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>30</v>
-      </c>
-      <c r="I8" t="n">
-        <v>580</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M8" t="n">
-        <v>9455</v>
-      </c>
-      <c r="N8" t="n">
-        <v>12544</v>
-      </c>
-      <c r="O8" t="n">
-        <v>12545</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U8" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W8" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7769.23076923077</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>7869.23076923077</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>9569.23076923077</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>9569.23076923077</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9.060000000000002</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.943745753321291</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8.484475000000003</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>7.032722619940071</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>4.805000000000007</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>4.283255868665143</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>4.811525000000008</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>4.252977475948837</v>
-      </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0.05774654504810454</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1.200113135758016</v>
-      </c>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0.9364762693156734</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0.5663284999955808</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>1.001357960457857</v>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>PROCESSED-20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>lowest</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>full</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30</v>
-      </c>
-      <c r="I9" t="n">
-        <v>580</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9455</v>
-      </c>
-      <c r="N9" t="n">
-        <v>12544</v>
-      </c>
-      <c r="O9" t="n">
-        <v>12545</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U9" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V9" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7769.23076923077</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7869.23076923077</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>9569.23076923077</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>9569.23076923077</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.715000000000003</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.807445486842046</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.715000000000003</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>7.04707798322494</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>4.764999999999986</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>4.390782187894267</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>4.730000000000018</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>4.104494641821673</v>
-      </c>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0.0593155310251054</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>1.200113135758016</v>
-      </c>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>0.5467584624211113</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0.9926547743966488</v>
-      </c>
-      <c r="AY9" t="inlineStr">
-        <is>
-          <t>20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-      <c r="AZ9" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
         </is>

--- a/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ7"/>
+  <dimension ref="A1:AZ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,12 +698,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-NO-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -717,15 +717,9 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H2" t="n">
-        <v>30</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>580</v>
       </c>
@@ -734,7 +728,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -749,95 +743,49 @@
       <c r="O2" t="n">
         <v>12545</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V2" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W2" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X2" t="n">
-        <v>7769.23076923077</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7869.23076923077</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>9569.23076923077</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>9569.23076923077</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>12.90639999999999</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.499007080605846</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12.90620000000002</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>7.111237862845549</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>5.879999999999995</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>5.04222171353702</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.650000000000006</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>5.546960810563482</v>
-      </c>
+      <c r="P2" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="R2" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>273.89</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.08784143505636442</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.9999845038120642</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.4555949853558746</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>1.130952380952383</v>
-      </c>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr">
         <is>
           <t>20251110-tett6roof-lowMooring</t>
@@ -852,7 +800,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -871,15 +819,9 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>30</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>580</v>
       </c>
@@ -904,102 +846,48 @@
         <v>12545</v>
       </c>
       <c r="P3" t="n">
-        <v>273.73908</v>
+        <v>273.78</v>
       </c>
       <c r="Q3" t="n">
-        <v>272.8488400000001</v>
+        <v>272.77</v>
       </c>
       <c r="R3" t="n">
-        <v>273.3348799999999</v>
+        <v>273.1199999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>273.79536</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X3" t="n">
-        <v>7769.23076923077</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7869.23076923077</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>9569.23076923077</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>9569.23076923077</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.794999999999987</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.053929456880295</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8.630000000000024</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>7.615474252521568</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4.589999999999975</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>4.037476642033022</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>4.550000000000011</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3.819486579159415</v>
-      </c>
+        <v>273.89</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.05873700892101672</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.9812393405343987</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0.5318655851680142</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.9912854030501168</v>
-      </c>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr">
         <is>
           <t>20251110-tett6roof-lowMooring</t>
@@ -1014,7 +902,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1050,7 +938,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -1065,10 +953,18 @@
       <c r="O4" t="n">
         <v>12545</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="R4" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>273.89</v>
+      </c>
       <c r="T4" t="n">
         <v>4500</v>
       </c>
@@ -1094,28 +990,28 @@
         <v>9569.23076923077</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.32779999999999</v>
+        <v>12.90639999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.440162726749836</v>
+        <v>8.499007080605846</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.66579999999998</v>
+        <v>12.90620000000002</v>
       </c>
       <c r="AE4" t="n">
-        <v>7.575994668005471</v>
+        <v>7.111237862845549</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.971750000000034</v>
+        <v>5.879999999999995</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.938114691299949</v>
+        <v>5.04222171353702</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.099999999999994</v>
+        <v>6.650000000000006</v>
       </c>
       <c r="AI4" t="n">
-        <v>5.00049402385922</v>
+        <v>5.546960810563482</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
@@ -1129,7 +1025,7 @@
         <v>17.83209309073736</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.08620523842315302</v>
+        <v>0.08784143505636442</v>
       </c>
       <c r="AP4" t="n">
         <v>3.94756259260598</v>
@@ -1146,13 +1042,13 @@
         <v>5.8</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.9503293866954782</v>
+        <v>0.9999845038120642</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.4714862069510052</v>
+        <v>0.4555949853558746</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.021476116716199</v>
+        <v>1.130952380952383</v>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
@@ -1168,7 +1064,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1204,7 +1100,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -1220,16 +1116,16 @@
         <v>12545</v>
       </c>
       <c r="P5" t="n">
-        <v>273.74192</v>
+        <v>273.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>272.59556</v>
+        <v>272.77</v>
       </c>
       <c r="R5" t="n">
-        <v>273.18404</v>
+        <v>273.1199999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>273.72112</v>
+        <v>273.89</v>
       </c>
       <c r="T5" t="n">
         <v>4500</v>
@@ -1256,28 +1152,28 @@
         <v>9569.23076923077</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.774825</v>
+        <v>8.794999999999987</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.082185067084071</v>
+        <v>8.053929456880295</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.629999999999995</v>
+        <v>8.630000000000024</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.617952267169443</v>
+        <v>7.615474252521568</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.811975000000004</v>
+        <v>4.589999999999975</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.109807505879727</v>
+        <v>4.037476642033022</v>
       </c>
       <c r="AH5" t="n">
-        <v>4.510000000000019</v>
+        <v>4.550000000000011</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.870606437099054</v>
+        <v>3.819486579159415</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
@@ -1291,7 +1187,7 @@
         <v>17.83209309073736</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.05873700892101653</v>
+        <v>0.05873700892101672</v>
       </c>
       <c r="AP5" t="n">
         <v>3.94756259260598</v>
@@ -1308,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.9834953973441061</v>
+        <v>0.9812393405343987</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.5575869061413681</v>
+        <v>0.5318655851680142</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.9372451020630854</v>
+        <v>0.9912854030501168</v>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
@@ -1330,12 +1226,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1366,7 +1262,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -1381,10 +1277,18 @@
       <c r="O6" t="n">
         <v>12545</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="R6" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="S6" t="n">
+        <v>273.89</v>
+      </c>
       <c r="T6" t="n">
         <v>4500</v>
       </c>
@@ -1410,28 +1314,28 @@
         <v>9569.23076923077</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.060000000000002</v>
+        <v>13.32779999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.943745753321291</v>
+        <v>8.440162726749836</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.484475000000003</v>
+        <v>12.66579999999998</v>
       </c>
       <c r="AE6" t="n">
-        <v>7.032722619940071</v>
+        <v>7.575994668005471</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.805000000000007</v>
+        <v>5.971750000000034</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.283255868665143</v>
+        <v>4.938114691299949</v>
       </c>
       <c r="AH6" t="n">
-        <v>4.811525000000008</v>
+        <v>6.099999999999994</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.252977475948837</v>
+        <v>5.00049402385922</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
@@ -1445,7 +1349,7 @@
         <v>17.83209309073736</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.05774654504810454</v>
+        <v>0.08620523842315302</v>
       </c>
       <c r="AP6" t="n">
         <v>3.94756259260598</v>
@@ -1459,16 +1363,16 @@
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
       <c r="AU6" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.9364762693156734</v>
+        <v>0.9503293866954782</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.5663284999955808</v>
+        <v>0.4714862069510052</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.001357960457857</v>
+        <v>1.021476116716199</v>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
@@ -1484,12 +1388,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -1520,7 +1424,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -1535,10 +1439,18 @@
       <c r="O7" t="n">
         <v>12545</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="R7" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="S7" t="n">
+        <v>273.89</v>
+      </c>
       <c r="T7" t="n">
         <v>4500</v>
       </c>
@@ -1564,28 +1476,28 @@
         <v>9569.23076923077</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.715000000000003</v>
+        <v>8.774825</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.807445486842046</v>
+        <v>8.082185067084071</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.715000000000003</v>
+        <v>8.629999999999995</v>
       </c>
       <c r="AE7" t="n">
-        <v>7.04707798322494</v>
+        <v>7.617952267169443</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.764999999999986</v>
+        <v>4.811975000000004</v>
       </c>
       <c r="AG7" t="n">
-        <v>4.390782187894267</v>
+        <v>4.109807505879727</v>
       </c>
       <c r="AH7" t="n">
-        <v>4.730000000000018</v>
+        <v>4.510000000000019</v>
       </c>
       <c r="AI7" t="n">
-        <v>4.104494641821673</v>
+        <v>3.870606437099054</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
@@ -1599,7 +1511,7 @@
         <v>17.83209309073736</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0593155310251054</v>
+        <v>0.05873700892101653</v>
       </c>
       <c r="AP7" t="n">
         <v>3.94756259260598</v>
@@ -1613,23 +1525,347 @@
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.9834953973441061</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.5575869061413681</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.9372451020630854</v>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>lowest</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>580</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>8855</v>
+      </c>
+      <c r="M8" t="n">
+        <v>9455</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12544</v>
+      </c>
+      <c r="O8" t="n">
+        <v>12545</v>
+      </c>
+      <c r="P8" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="R8" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="S8" t="n">
+        <v>273.89</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7769.23076923077</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>9.060000000000002</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.943745753321291</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.484475000000003</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>7.032722619940071</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>4.805000000000007</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>4.283255868665143</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>4.811525000000008</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>4.252977475948837</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.05774654504810454</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1.200113135758016</v>
+      </c>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="n">
         <v>3.8</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV8" t="n">
+        <v>0.9364762693156734</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.5663284999955808</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>1.001357960457857</v>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lowest</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" t="n">
+        <v>580</v>
+      </c>
+      <c r="J9" t="n">
+        <v>10</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>8855</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9455</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12544</v>
+      </c>
+      <c r="O9" t="n">
+        <v>12545</v>
+      </c>
+      <c r="P9" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="R9" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="S9" t="n">
+        <v>273.89</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4600</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6300</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6300</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7769.23076923077</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.715000000000003</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.807445486842046</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.715000000000003</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7.04707798322494</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>4.764999999999986</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>4.390782187894267</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>4.730000000000018</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>4.104494641821673</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>6.806142401044793</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.9231639505830895</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>17.83209309073736</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.0593155310251054</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>3.94756259260598</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.9992551669737394</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1.200113135758016</v>
+      </c>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AV9" t="n">
         <v>1</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW9" t="n">
         <v>0.5467584624211113</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX9" t="n">
         <v>0.9926547743966488</v>
       </c>
-      <c r="AY7" t="inlineStr">
+      <c r="AY9" t="inlineStr">
         <is>
           <t>20251110-tett6roof-lowMooring</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr">
+      <c r="AZ9" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
         </is>

--- a/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
@@ -718,12 +718,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -754,7 +754,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -830,12 +830,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -942,12 +942,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -978,7 +978,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -1054,7 +1054,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-NO-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1073,9 +1073,15 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
       <c r="I5" t="n">
         <v>580</v>
       </c>
@@ -1084,7 +1090,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -1160,12 +1166,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-NO-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>lowest</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1179,15 +1185,9 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>30</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>580</v>
       </c>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -1272,7 +1272,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -1384,12 +1384,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-depth580-mstop10-run2.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>lowest</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -1403,9 +1403,15 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
       <c r="I8" t="n">
         <v>580</v>
       </c>
@@ -1490,12 +1496,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-depth580-mstop10-run2.csv</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -1509,15 +1515,9 @@
           <t>low</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>580</v>
       </c>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1553,103 +1553,41 @@
       <c r="S9" t="n">
         <v>273.89</v>
       </c>
-      <c r="T9" t="n">
-        <v>4500</v>
-      </c>
-      <c r="U9" t="n">
-        <v>4600</v>
-      </c>
-      <c r="V9" t="n">
-        <v>6300</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6300</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7769.23076923077</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7869.23076923077</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>9569.23076923077</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>9569.23076923077</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>12.90639999999999</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.005732729390657261</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>12.90620000000002</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.002556574923547509</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>5.879999999999995</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0.003318649402162599</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>6.650000000000006</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0.003785248234288215</v>
-      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="n">
-        <v>6.806142401044793</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0.9231639505830895</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>17.83209309073736</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0.08784143505636442</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.94756259260598</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0.9992551669737394</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>1.200113135758016</v>
-      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>0.9999845038120642</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0.4555949853558746</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>1.130952380952383</v>
-      </c>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
       <c r="BC9" t="inlineStr">
         <is>
           <t>20251110-tett6roof-lowMooring</t>

--- a/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BU9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,275 +441,360 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>experiment_folder</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>file_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>WindCondition</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>TunnelCondition</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PanelCondition</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Mooring</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>WaveAmplitudeInput [Volt]</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>WaveFrequencyInput [Hz]</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>WavePeriodInput</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>WaterDepth [mm]</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Extra seconds</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Run number</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Probe 1 mm from paddle</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Stillwater Probe 1</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Computed Probe 1 start</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Computed Probe 1 end</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 1 Amplitude</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 1 Amplitude (PSD)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 1 Amplitude (FFT)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 1 WavePeriod (FFT)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 1 Wavenumber (FFT)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 1 Wavelength (FFT)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 1 Significant Wave Height Hm0 (FFT)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Probe 2 mm from paddle</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Stillwater Probe 2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Computed Probe 2 start</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Computed Probe 2 end</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 2 Amplitude</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 2 Amplitude (PSD)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 2 Amplitude (FFT)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 2 WavePeriod (FFT)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 2 Wavenumber (FFT)</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 2 Wavelength (FFT)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 2 Significant Wave Height Hm0 (FFT)</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Probe 3 mm from paddle</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Stillwater Probe 3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Computed Probe 3 start</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Computed Probe 3 end</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 3 Amplitude</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 3 Amplitude (PSD)</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 3 Amplitude (FFT)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 3 WavePeriod (FFT)</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 3 Wavenumber (FFT)</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 3 Wavelength (FFT)</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 3 Significant Wave Height Hm0 (FFT)</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Probe 4 mm from paddle</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Stillwater Probe 1</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Stillwater Probe 2</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Stillwater Probe 3</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Stillwater Probe 4</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Computed Probe 1 start</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Computed Probe 2 start</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Computed Probe 3 start</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Computed Probe 4 start</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Computed Probe 1 end</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Computed Probe 2 end</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Computed Probe 3 end</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Computed Probe 4 end</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Probe 1 Amplitude</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Probe 1 Amplitude (PSD)</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Probe 1 Amplitude (FFT)</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Probe 2 Amplitude</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Probe 2 Amplitude (PSD)</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Probe 2 Amplitude (FFT)</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Probe 3 Amplitude</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Probe 3 Amplitude (PSD)</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Probe 3 Amplitude (FFT)</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Probe 4 Amplitude</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Probe 4 Amplitude (PSD)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Probe 4 Amplitude (FFT)</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 4 WavePeriod (FFT)</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 4 Wavenumber (FFT)</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 4 Wavelength (FFT)</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Probe 4 Significant Wave Height Hm0 (FFT)</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>Wavefrequency</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Waveperiod</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Wavenumber</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Wavelength</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>kL</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>ak</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>kH</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>tanh(kH)</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Celerity</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Significant Wave Height Hs</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Significant Wave Height Hm0</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Windspeed</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>P2/P1</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>P3/P2</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>P4/P3</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>experiment_folder</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>PROCESSED_folder</t>
         </is>
@@ -723,71 +808,71 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-11-10T11:13:30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>0.1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>1.3</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>30</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>580</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>10</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M2" t="n">
-        <v>9455</v>
-      </c>
       <c r="N2" t="n">
-        <v>12544</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>12545</v>
-      </c>
-      <c r="P2" t="n">
         <v>273.78</v>
       </c>
-      <c r="Q2" t="n">
-        <v>272.77</v>
-      </c>
-      <c r="R2" t="n">
-        <v>273.1199999999999</v>
-      </c>
-      <c r="S2" t="n">
-        <v>273.89</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Y2" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>272.77</v>
+      </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -797,8 +882,12 @@
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>273.1199999999999</v>
+      </c>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
@@ -808,20 +897,37 @@
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
-      <c r="AV2" t="inlineStr"/>
+      <c r="AU2" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>273.89</v>
+      </c>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="inlineStr"/>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
         </is>
@@ -835,71 +941,71 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-11-10T12:44:18</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>0.1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>1.3</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>30</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>580</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>10</v>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M3" t="n">
-        <v>9455</v>
-      </c>
       <c r="N3" t="n">
-        <v>12544</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>12545</v>
-      </c>
-      <c r="P3" t="n">
         <v>273.78</v>
       </c>
-      <c r="Q3" t="n">
-        <v>272.77</v>
-      </c>
-      <c r="R3" t="n">
-        <v>273.1199999999999</v>
-      </c>
-      <c r="S3" t="n">
-        <v>273.89</v>
-      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>272.77</v>
+      </c>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
@@ -909,8 +1015,12 @@
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>273.1199999999999</v>
+      </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
@@ -920,20 +1030,37 @@
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
+      <c r="AU3" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>273.89</v>
+      </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-      <c r="BD3" t="inlineStr">
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
         </is>
@@ -947,71 +1074,71 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-11-10T11:14:32</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>0.1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>1.3</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>30</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>580</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>10</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9455</v>
-      </c>
       <c r="N4" t="n">
-        <v>12544</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>12545</v>
-      </c>
-      <c r="P4" t="n">
         <v>273.78</v>
       </c>
-      <c r="Q4" t="n">
-        <v>272.77</v>
-      </c>
-      <c r="R4" t="n">
-        <v>273.1199999999999</v>
-      </c>
-      <c r="S4" t="n">
-        <v>273.89</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>272.77</v>
+      </c>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
@@ -1021,8 +1148,12 @@
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="AJ4" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>273.1199999999999</v>
+      </c>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
@@ -1032,20 +1163,37 @@
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
+      <c r="AU4" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>273.89</v>
+      </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="inlineStr"/>
       <c r="AY4" t="inlineStr"/>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-      <c r="BD4" t="inlineStr">
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
         </is>
@@ -1059,71 +1207,71 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-11-10T12:42:08</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>0.1</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>1.3</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>30</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>580</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>10</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M5" t="n">
-        <v>9455</v>
-      </c>
       <c r="N5" t="n">
-        <v>12544</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>12545</v>
-      </c>
-      <c r="P5" t="n">
         <v>273.78</v>
       </c>
-      <c r="Q5" t="n">
-        <v>272.77</v>
-      </c>
-      <c r="R5" t="n">
-        <v>273.1199999999999</v>
-      </c>
-      <c r="S5" t="n">
-        <v>273.89</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>272.77</v>
+      </c>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
@@ -1133,8 +1281,12 @@
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>273.1199999999999</v>
+      </c>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
@@ -1144,20 +1296,37 @@
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
+      <c r="AU5" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>273.89</v>
+      </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="inlineStr"/>
       <c r="AY5" t="inlineStr"/>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-      <c r="BD5" t="inlineStr">
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
         </is>
@@ -1171,65 +1340,65 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-11-10T11:16:50</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
         <v>580</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>10</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M6" t="n">
-        <v>9455</v>
-      </c>
       <c r="N6" t="n">
-        <v>12544</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
-        <v>12545</v>
-      </c>
-      <c r="P6" t="n">
         <v>273.78</v>
       </c>
-      <c r="Q6" t="n">
-        <v>272.77</v>
-      </c>
-      <c r="R6" t="n">
-        <v>273.1199999999999</v>
-      </c>
-      <c r="S6" t="n">
-        <v>273.89</v>
-      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>272.77</v>
+      </c>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
@@ -1239,8 +1408,12 @@
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>273.1199999999999</v>
+      </c>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
@@ -1250,20 +1423,37 @@
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
+      <c r="AU6" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>273.89</v>
+      </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-      <c r="BD6" t="inlineStr">
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
         </is>
@@ -1277,71 +1467,71 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-11-10T11:09:06</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>lowest</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>0.1</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>1.3</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>30</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>580</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>10</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9455</v>
-      </c>
       <c r="N7" t="n">
-        <v>12544</v>
+        <v>18000</v>
       </c>
       <c r="O7" t="n">
-        <v>12545</v>
-      </c>
-      <c r="P7" t="n">
         <v>273.78</v>
       </c>
-      <c r="Q7" t="n">
-        <v>272.77</v>
-      </c>
-      <c r="R7" t="n">
-        <v>273.1199999999999</v>
-      </c>
-      <c r="S7" t="n">
-        <v>273.89</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>272.77</v>
+      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1351,8 +1541,12 @@
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>273.1199999999999</v>
+      </c>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
@@ -1362,20 +1556,37 @@
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
+      <c r="AU7" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>273.89</v>
+      </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-      <c r="BD7" t="inlineStr">
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
         </is>
@@ -1389,71 +1600,71 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-11-10T11:08:12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>lowest</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>0.1</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>1.3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>30</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>580</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>10</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M8" t="n">
-        <v>9455</v>
-      </c>
       <c r="N8" t="n">
-        <v>12544</v>
+        <v>18000</v>
       </c>
       <c r="O8" t="n">
-        <v>12545</v>
-      </c>
-      <c r="P8" t="n">
         <v>273.78</v>
       </c>
-      <c r="Q8" t="n">
-        <v>272.77</v>
-      </c>
-      <c r="R8" t="n">
-        <v>273.1199999999999</v>
-      </c>
-      <c r="S8" t="n">
-        <v>273.89</v>
-      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>272.77</v>
+      </c>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
@@ -1463,8 +1674,12 @@
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>273.1199999999999</v>
+      </c>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
@@ -1474,20 +1689,37 @@
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
+      <c r="AU8" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>273.89</v>
+      </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="inlineStr"/>
       <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr">
-        <is>
-          <t>20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-      <c r="BD8" t="inlineStr">
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
         </is>
@@ -1501,65 +1733,65 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-11-10T11:16:50</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
         <v>580</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>10</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>8855</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9455</v>
-      </c>
       <c r="N9" t="n">
-        <v>12544</v>
+        <v>18000</v>
       </c>
       <c r="O9" t="n">
-        <v>12545</v>
-      </c>
-      <c r="P9" t="n">
         <v>273.78</v>
       </c>
-      <c r="Q9" t="n">
-        <v>272.77</v>
-      </c>
-      <c r="R9" t="n">
-        <v>273.1199999999999</v>
-      </c>
-      <c r="S9" t="n">
-        <v>273.89</v>
-      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>272.77</v>
+      </c>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
@@ -1569,8 +1801,12 @@
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>273.1199999999999</v>
+      </c>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
@@ -1580,20 +1816,37 @@
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
+      <c r="AU9" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>273.89</v>
+      </c>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="inlineStr"/>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr">
-        <is>
-          <t>20251110-tett6roof-lowMooring</t>
-        </is>
-      </c>
-      <c r="BD9" t="inlineStr">
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
         </is>

--- a/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
@@ -858,11 +858,21 @@
       <c r="O2" t="n">
         <v>273.78</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="P2" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>7769.23076923077</v>
+      </c>
+      <c r="R2" t="n">
+        <v>12.90639999999999</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8.514745009775014</v>
+      </c>
+      <c r="T2" t="n">
+        <v>8.28015562970339</v>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -873,11 +883,21 @@
       <c r="Z2" t="n">
         <v>272.77</v>
       </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>4600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>12.90620000000002</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.169668637982917</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>7.168384321439824</v>
+      </c>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
@@ -888,11 +908,21 @@
       <c r="AK2" t="n">
         <v>273.1199999999999</v>
       </c>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5.879999999999995</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>4.865214642444061</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>4.215781433114833</v>
+      </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -903,30 +933,62 @@
       <c r="AV2" t="n">
         <v>273.89</v>
       </c>
-      <c r="AW2" t="inlineStr"/>
-      <c r="AX2" t="inlineStr"/>
-      <c r="AY2" t="inlineStr"/>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>6.650000000000006</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>5.537251737712719</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>4.810691224639947</v>
+      </c>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
+      <c r="BH2" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.08787126680664326</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="BO2" t="inlineStr"/>
       <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
-      <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr"/>
+      <c r="BQ2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.9999845038120642</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.4555949853558746</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1.130952380952383</v>
+      </c>
       <c r="BU2" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
@@ -991,11 +1053,21 @@
       <c r="O3" t="n">
         <v>273.78</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7769.23076923077</v>
+      </c>
+      <c r="R3" t="n">
+        <v>8.794999999999987</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8.105980483250725</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8.104006643907502</v>
+      </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -1006,11 +1078,21 @@
       <c r="Z3" t="n">
         <v>272.77</v>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>4600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.630000000000024</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7.666935356010356</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7.691412906440089</v>
+      </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
@@ -1021,11 +1103,21 @@
       <c r="AK3" t="n">
         <v>273.1199999999999</v>
       </c>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.589999999999975</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>4.069465705674697</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3.718203917756416</v>
+      </c>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1036,30 +1128,62 @@
       <c r="AV3" t="n">
         <v>273.89</v>
       </c>
-      <c r="AW3" t="inlineStr"/>
-      <c r="AX3" t="inlineStr"/>
-      <c r="AY3" t="inlineStr"/>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>4.550000000000011</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>3.864197944488509</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>3.485222901806679</v>
+      </c>
       <c r="BB3" t="inlineStr"/>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
+      <c r="BH3" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.05875695654346999</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="BO3" t="inlineStr"/>
       <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.9812393405343987</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.5318655851680142</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.9912854030501168</v>
+      </c>
       <c r="BU3" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
@@ -1124,11 +1248,21 @@
       <c r="O4" t="n">
         <v>273.78</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7769.23076923077</v>
+      </c>
+      <c r="R4" t="n">
+        <v>13.32779999999999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8.451134152075154</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8.3665769938561</v>
+      </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -1139,11 +1273,21 @@
       <c r="Z4" t="n">
         <v>272.77</v>
       </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>4600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12.66579999999998</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.694981266638514</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7.635970526640322</v>
+      </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
@@ -1154,11 +1298,21 @@
       <c r="AK4" t="n">
         <v>273.1199999999999</v>
       </c>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.971750000000034</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>4.792517583041626</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>4.378005130081958</v>
+      </c>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1169,30 +1323,62 @@
       <c r="AV4" t="n">
         <v>273.89</v>
       </c>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>6.099999999999994</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>4.843512680554502</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>4.50268491913406</v>
+      </c>
       <c r="BB4" t="inlineStr"/>
       <c r="BC4" t="inlineStr"/>
       <c r="BD4" t="inlineStr"/>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr"/>
+      <c r="BH4" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.08623451450617371</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="inlineStr"/>
-      <c r="BT4" t="inlineStr"/>
+      <c r="BQ4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.9503293866954782</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.4714862069510052</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1.021476116716199</v>
+      </c>
       <c r="BU4" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
@@ -1257,11 +1443,21 @@
       <c r="O5" t="n">
         <v>273.78</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7769.23076923077</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8.774825</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8.109279445043084</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8.120387768827504</v>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
@@ -1272,11 +1468,21 @@
       <c r="Z5" t="n">
         <v>272.77</v>
       </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>4600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.629999999999995</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.674095018997201</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>7.690112509263594</v>
+      </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
@@ -1287,11 +1493,21 @@
       <c r="AK5" t="n">
         <v>273.1199999999999</v>
       </c>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.811975000000004</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>4.142196032346382</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>3.802007121584912</v>
+      </c>
       <c r="AQ5" t="inlineStr"/>
       <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
@@ -1302,30 +1518,62 @@
       <c r="AV5" t="n">
         <v>273.89</v>
       </c>
-      <c r="AW5" t="inlineStr"/>
-      <c r="AX5" t="inlineStr"/>
-      <c r="AY5" t="inlineStr"/>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>4.510000000000019</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>3.907224639626328</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>3.540330360402954</v>
+      </c>
       <c r="BB5" t="inlineStr"/>
       <c r="BC5" t="inlineStr"/>
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
+      <c r="BH5" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.0587569565434698</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="BO5" t="inlineStr"/>
       <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="inlineStr"/>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.9834953973441061</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.5575869061413681</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.9372451020630854</v>
+      </c>
       <c r="BU5" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
@@ -1384,9 +1632,15 @@
       <c r="O6" t="n">
         <v>273.78</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9996</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.7759999999999633</v>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1399,9 +1653,15 @@
       <c r="Z6" t="n">
         <v>272.77</v>
       </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.8549999999999898</v>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
@@ -1414,9 +1674,15 @@
       <c r="AK6" t="n">
         <v>273.1199999999999</v>
       </c>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.4699999999999989</v>
+      </c>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1429,9 +1695,15 @@
       <c r="AV6" t="n">
         <v>273.89</v>
       </c>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="inlineStr"/>
-      <c r="AY6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.4300000000000068</v>
+      </c>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
@@ -1440,7 +1712,9 @@
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr"/>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
       <c r="BI6" t="inlineStr"/>
       <c r="BJ6" t="inlineStr"/>
       <c r="BK6" t="inlineStr"/>
@@ -1449,10 +1723,18 @@
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
       <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr"/>
-      <c r="BT6" t="inlineStr"/>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>1.101804123711379</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.5497076023391866</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.9148936170212933</v>
+      </c>
       <c r="BU6" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
@@ -1517,11 +1799,21 @@
       <c r="O7" t="n">
         <v>273.78</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7769.23076923077</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9.060000000000002</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7.952336475853132</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7.908695829941201</v>
+      </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -1532,11 +1824,21 @@
       <c r="Z7" t="n">
         <v>272.77</v>
       </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>4600</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.484475000000003</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.070059057654841</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>7.060406783729369</v>
+      </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
@@ -1547,11 +1849,21 @@
       <c r="AK7" t="n">
         <v>273.1199999999999</v>
       </c>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.805000000000007</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4.228167848347294</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>3.812336567730902</v>
+      </c>
       <c r="AQ7" t="inlineStr"/>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
@@ -1562,30 +1874,62 @@
       <c r="AV7" t="n">
         <v>273.89</v>
       </c>
-      <c r="AW7" t="inlineStr"/>
-      <c r="AX7" t="inlineStr"/>
-      <c r="AY7" t="inlineStr"/>
-      <c r="AZ7" t="inlineStr"/>
-      <c r="BA7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>4.811525000000008</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>4.145568127218961</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>3.688818123959481</v>
+      </c>
       <c r="BB7" t="inlineStr"/>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="inlineStr"/>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr"/>
-      <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
+      <c r="BH7" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.05776615630001811</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="BO7" t="inlineStr"/>
       <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr"/>
-      <c r="BT7" t="inlineStr"/>
+      <c r="BQ7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.9364762693156734</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.5663284999955808</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>1.001357960457857</v>
+      </c>
       <c r="BU7" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
@@ -1650,11 +1994,21 @@
       <c r="O8" t="n">
         <v>273.78</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>4500</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7769.23076923077</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.715000000000003</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7.770726677445423</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7.788650103927046</v>
+      </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -1665,11 +2019,21 @@
       <c r="Z8" t="n">
         <v>272.77</v>
       </c>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>4600</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.715000000000003</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.077449750416727</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>7.13702871085077</v>
+      </c>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
@@ -1680,11 +2044,21 @@
       <c r="AK8" t="n">
         <v>273.1199999999999</v>
       </c>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.764999999999986</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>4.328843315676488</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3.970900664714767</v>
+      </c>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1695,30 +2069,62 @@
       <c r="AV8" t="n">
         <v>273.89</v>
       </c>
-      <c r="AW8" t="inlineStr"/>
-      <c r="AX8" t="inlineStr"/>
-      <c r="AY8" t="inlineStr"/>
-      <c r="AZ8" t="inlineStr"/>
-      <c r="BA8" t="inlineStr"/>
+      <c r="AW8" t="n">
+        <v>6300</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>9569.23076923077</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>4.730000000000018</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>4.024434862221202</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>3.657512217514146</v>
+      </c>
       <c r="BB8" t="inlineStr"/>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
+      <c r="BH8" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.05933567511892697</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.19970570478913</v>
+      </c>
       <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr"/>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
-      <c r="BT8" t="inlineStr"/>
+      <c r="BQ8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.5467584624211113</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.9926547743966488</v>
+      </c>
       <c r="BU8" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>
@@ -1777,9 +2183,15 @@
       <c r="O9" t="n">
         <v>273.78</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9996</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.7759999999999633</v>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1792,9 +2204,15 @@
       <c r="Z9" t="n">
         <v>272.77</v>
       </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.8549999999999898</v>
+      </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
@@ -1807,9 +2225,15 @@
       <c r="AK9" t="n">
         <v>273.1199999999999</v>
       </c>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.4699999999999989</v>
+      </c>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1822,9 +2246,15 @@
       <c r="AV9" t="n">
         <v>273.89</v>
       </c>
-      <c r="AW9" t="inlineStr"/>
-      <c r="AX9" t="inlineStr"/>
-      <c r="AY9" t="inlineStr"/>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.4300000000000068</v>
+      </c>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
@@ -1833,7 +2263,9 @@
       <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
       <c r="BI9" t="inlineStr"/>
       <c r="BJ9" t="inlineStr"/>
       <c r="BK9" t="inlineStr"/>
@@ -1842,10 +2274,18 @@
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
       <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
-      <c r="BT9" t="inlineStr"/>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>1.101804123711379</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.5497076023391866</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.9148936170212933</v>
+      </c>
       <c r="BU9" t="inlineStr">
         <is>
           <t>PROCESSED-20251110-tett6roof-lowMooring</t>

--- a/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
+++ b/waveprocessed/PROCESSED-20251110-tett6roof-lowMooring/meta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU2"/>
+  <dimension ref="A1:BU9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,7 +855,9 @@
       <c r="N2" t="n">
         <v>18000</v>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>273.78</v>
+      </c>
       <c r="P2" t="n">
         <v>4600</v>
       </c>
@@ -878,7 +880,9 @@
       <c r="Y2" t="n">
         <v>9455</v>
       </c>
-      <c r="Z2" t="inlineStr"/>
+      <c r="Z2" t="n">
+        <v>272.77</v>
+      </c>
       <c r="AA2" t="n">
         <v>4700</v>
       </c>
@@ -901,7 +905,9 @@
       <c r="AJ2" t="n">
         <v>12544</v>
       </c>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AK2" t="n">
+        <v>273.1199999999999</v>
+      </c>
       <c r="AL2" t="n">
         <v>6400</v>
       </c>
@@ -924,7 +930,9 @@
       <c r="AU2" t="n">
         <v>12545</v>
       </c>
-      <c r="AV2" t="inlineStr"/>
+      <c r="AV2" t="n">
+        <v>273.89</v>
+      </c>
       <c r="AW2" t="n">
         <v>6400</v>
       </c>
@@ -987,6 +995,1303 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-11-10T12:44:18</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>30</v>
+      </c>
+      <c r="K3" t="n">
+        <v>580</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="R3" t="n">
+        <v>8.794999999999987</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8.094303269928428</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8.101441266311889</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4700</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7969.23076923077</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.640000000000015</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7.653082032441217</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>7.684984832660437</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>9669.23076923077</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.579999999999984</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>4.064307456622762</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3.49377281045619</v>
+      </c>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>273.89</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>9669.23076923077</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>4.33499999999998</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>3.856491697050317</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>3.269742056141109</v>
+      </c>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.058825041081759</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.9823763501989797</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.5300925925925899</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.9465065502183394</v>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-fullwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-11-10T11:14:32</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30</v>
+      </c>
+      <c r="K4" t="n">
+        <v>580</v>
+      </c>
+      <c r="L4" t="n">
+        <v>10</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="R4" t="n">
+        <v>13.32779999999999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8.407707621008264</v>
+      </c>
+      <c r="T4" t="n">
+        <v>8.3567626659077</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>4700</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7969.23076923077</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12.65219999999997</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.650615377084158</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7.514968535444567</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>9669.23076923077</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.994250000000028</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>4.774121298627148</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>4.37595487003858</v>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>273.89</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>9669.23076923077</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>6.099999999999994</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>4.808130641591684</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>4.40389293667771</v>
+      </c>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>0.0861419195341005</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0.9493089632197349</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0.4737713599215979</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1.017641906827371</v>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-11-10T12:42:08</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>30</v>
+      </c>
+      <c r="K5" t="n">
+        <v>580</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8.740000000000009</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8.103298840454983</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8.114112960193971</v>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>4700</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7969.23076923077</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.605000000000018</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.65853764533404</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>7.677500123691162</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>9669.23076923077</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.829475000000002</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>4.142192183468545</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>3.644913983269144</v>
+      </c>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>273.89</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>9669.23076923077</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>4.505000000000024</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>3.904413077703312</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>3.395612662441075</v>
+      </c>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>0.05858674519774727</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>0.9845537757437082</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0.5612405578152228</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0.9328136081044051</v>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-NO-depth580-mstop10-run2.csv</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-11-10T11:16:50</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>580</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9996</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.7759999999999633</v>
+      </c>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.8549999999999898</v>
+      </c>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.4699999999999989</v>
+      </c>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>273.89</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.4300000000000068</v>
+      </c>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>1.101804123711379</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0.5497076023391866</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0.9148936170212933</v>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run1.csv</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-11-10T11:09:06</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>lowest</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>30</v>
+      </c>
+      <c r="K7" t="n">
+        <v>580</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="R7" t="n">
+        <v>9.216200000000018</v>
+      </c>
+      <c r="S7" t="n">
+        <v>7.946576827816712</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7.928521965147368</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>4700</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7969.23076923077</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.484475000000003</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7.073710988888231</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>7.054100595434278</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>9669.23076923077</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.675000000000011</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4.217409941113424</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>3.738255256183998</v>
+      </c>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>273.89</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>9669.23076923077</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>4.834025000000016</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>4.122661356033248</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>3.672531184427357</v>
+      </c>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0.05776615630001811</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0.9206044790694632</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0.551006396978011</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>1.03401604278075</v>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-lowestwind-amp0100-freq1300-per30-depth580-mstop10-run2.csv</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-11-10T11:08:12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>lowest</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>30</v>
+      </c>
+      <c r="K8" t="n">
+        <v>580</v>
+      </c>
+      <c r="L8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4600</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7869.23076923077</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8.844999999999999</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7.768674475180692</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7.813499943992182</v>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>4700</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7969.23076923077</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.673275000000015</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.073879136306175</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>7.138744164966035</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>9669.23076923077</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.764999999999986</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>4.314960324140024</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>3.795588171936036</v>
+      </c>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>273.89</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>9669.23076923077</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>4.685000000000002</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>4.003271111696373</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>3.48252584773542</v>
+      </c>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="n">
+        <v>6.80845382890728</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0.922850542145485</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>17.83814903173707</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0.05905159238291589</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>3.948903220766222</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0.9992571606462729</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.19970570478913</v>
+      </c>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0.9805850763143036</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0.5493887833603776</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0.983210912906614</v>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/Users/ole/Kodevik/wave_project/wavedata/20251110-tett6roof-lowMooring/fullpanel-nowind-depth580-mstop10-run2.csv</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-11-10T11:16:50</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>full</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>580</v>
+      </c>
+      <c r="L9" t="n">
+        <v>10</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>273.78</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9996</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.7759999999999633</v>
+      </c>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>9455</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>272.77</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.8549999999999898</v>
+      </c>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>12544</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>273.1199999999999</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.4699999999999989</v>
+      </c>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="n">
+        <v>12545</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>273.89</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>9996</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.4300000000000068</v>
+      </c>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>1.101804123711379</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0.5497076023391866</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0.9148936170212933</v>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>PROCESSED-20251110-tett6roof-lowMooring</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
